--- a/biology/Zoologie/Dismorphia_amphione/Dismorphia_amphione.xlsx
+++ b/biology/Zoologie/Dismorphia_amphione/Dismorphia_amphione.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dismorphia amphione est une espèce de lépidoptères (papillons) de la famille des Pieridae, de la sous-famille des Dismorphiinae et du genre Dismorphia.
 </t>
@@ -511,11 +523,48 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dismorphia amphione a été décrit par Pieter Cramer en 1779 sous le nom de Papilio amphione[1].
-Sous-espèces
-Dismorphia amphione amphione au Surinam
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dismorphia amphione a été décrit par Pieter Cramer en 1779 sous le nom de Papilio amphione.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Dismorphia_amphione</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dismorphia_amphione</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Dismorphia amphione amphione au Surinam
 Dismorphia amphione astynome (Dalman, 1823); au Brésil et en Argentine.
 Dismorphia amphione beroe (Lucas, 1852); en Colombie.
 Dismorphia amphione broomeae Butler, 1899; à Trinité-et-Tobago et au Venezuela.
@@ -526,40 +575,76 @@
 Dismorphia amphione lupita Lamas, 1979; au Mexique.
 Dismorphia amphione meridionalis Röber, 1909; en Bolivie.
 Dismorphia amphione praxinoe (Doubleday, 1844); au Mexique, à Panama et en Colombie.
-Dismorphia amphione rhomboidea Butler, 1896; en Équateur et au Pérou[1].
-Nom vernaculaire
-Dismorphia amphione se nomme Tiger Mimic White en anglais.
+Dismorphia amphione rhomboidea Butler, 1896; en Équateur et au Pérou.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Dismorphia_amphione</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dismorphia_amphione</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Nom vernaculaire</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dismorphia amphione se nomme Tiger Mimic White en anglais.
 </t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Dismorphia_amphione</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Dismorphia_amphione</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dismorphia cubana est un papillon d'une envergure d'environ 77 mm marron orange et blanc crème avec une ornementation variable, suivant le sexe et suivant les sous-espèces. Les ailes antérieures sont marron ornées de plus ou moins grandes taches ovales orange dans la partie basale et de taches crèmes et les ailes postérieures sont soit blanches soit orange plus ou moins bordées et ornées de marron[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dismorphia cubana est un papillon d'une envergure d'environ 77 mm marron orange et blanc crème avec une ornementation variable, suivant le sexe et suivant les sous-espèces. Les ailes antérieures sont marron ornées de plus ou moins grandes taches ovales orange dans la partie basale et de taches crèmes et les ailes postérieures sont soit blanches soit orange plus ou moins bordées et ornées de marron.
 			Dismorphia amphione amphione mâle
 			Dismorphia amphione discrepans mâle
 			Dismorphia amphione astynome mâle
@@ -570,71 +655,6 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Dismorphia_amphione</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Dismorphia_amphione</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plantes hôtes
-Les plantes hôte de sa chenille sont des Inga : Inga densiflora et Inga sapindoides[1].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Dismorphia_amphione</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Dismorphia_amphione</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Écologie et distribution</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est présent dans une grande majorité de l'Amérique du Sud, au Mexique, à Panama, à Trinité-et-Tobago, en Colombie, en Équateur, au Venezuela, au Surinam, en Guyane, au Brésil, en Argentine et au Pérou.
-Protection
-Pas de statut de protection particulier.
-</t>
-        </is>
-      </c>
-    </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
@@ -656,10 +676,119 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôte de sa chenille sont des Inga : Inga densiflora et Inga sapindoides.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Dismorphia_amphione</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dismorphia_amphione</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est présent dans une grande majorité de l'Amérique du Sud, au Mexique, à Panama, à Trinité-et-Tobago, en Colombie, en Équateur, au Venezuela, au Surinam, en Guyane, au Brésil, en Argentine et au Pérou.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Dismorphia_amphione</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dismorphia_amphione</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Dismorphia_amphione</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dismorphia_amphione</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Philatélie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Un timbre a été émis par la poste des îles Grenadines en 1975.
 </t>
